--- a/data/raw_data/PolicyData.xlsx
+++ b/data/raw_data/PolicyData.xlsx
@@ -29,19 +29,19 @@
     <t>total_abortion_ban</t>
   </si>
   <si>
-    <t>6_week_ban</t>
-  </si>
-  <si>
-    <t>12_week_ban</t>
-  </si>
-  <si>
-    <t>15_week_ban</t>
-  </si>
-  <si>
-    <t>18_to_23_week_ban</t>
-  </si>
-  <si>
-    <t>24_to_26_week_ban</t>
+    <t>week_ban_6</t>
+  </si>
+  <si>
+    <t>week_ban_12</t>
+  </si>
+  <si>
+    <t>week_ban_15</t>
+  </si>
+  <si>
+    <t>week_ban_18_to_23</t>
+  </si>
+  <si>
+    <t>week_ban_24_to_26</t>
   </si>
   <si>
     <t>no_gestational_ban</t>
@@ -676,19 +676,19 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -8970,6 +8970,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="6" max="6" width="22.63"/>
+    <col customWidth="1" min="7" max="7" width="21.13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
